--- a/Потапова.xlsx
+++ b/Потапова.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\142\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\142\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,91 +24,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>А</t>
+    <t>Основание системы:</t>
   </si>
   <si>
-    <t>Б</t>
+    <t>Разряды:</t>
   </si>
   <si>
-    <t>В</t>
+    <t>Число:</t>
   </si>
   <si>
-    <t>Г</t>
+    <t>Перевод:</t>
   </si>
   <si>
-    <t>Д</t>
+    <t>,</t>
   </si>
   <si>
-    <t>Е</t>
+    <t xml:space="preserve"> =</t>
   </si>
   <si>
-    <t>Ж</t>
+    <t>Таблица умножения</t>
   </si>
   <si>
-    <t>З</t>
+    <t xml:space="preserve"> -ричной системы</t>
   </si>
   <si>
-    <t>И</t>
-  </si>
-  <si>
-    <t>Й</t>
-  </si>
-  <si>
-    <t>К</t>
-  </si>
-  <si>
-    <t>.-</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>-…</t>
-  </si>
-  <si>
-    <t>.--</t>
-  </si>
-  <si>
-    <t>--.</t>
-  </si>
-  <si>
-    <t>-..</t>
-  </si>
-  <si>
-    <t>…-</t>
-  </si>
-  <si>
-    <t>--..</t>
-  </si>
-  <si>
-    <t>.---</t>
-  </si>
-  <si>
-    <t>-.-</t>
-  </si>
-  <si>
-    <t>Введите текст ниже:</t>
-  </si>
-  <si>
-    <t>Текст в Морзе:</t>
-  </si>
-  <si>
-    <t>ААВВБА</t>
-  </si>
-  <si>
-    <t>АБВГДЕЖЗИК</t>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +66,31 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,13 +98,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -421,259 +409,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="str">
+        <f>IF(D2&lt;10,"Работаем","Зачем тебе это надо?")</f>
+        <v>Зачем тебе это надо?</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="S2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="S3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-4</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="S4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <f>SUM(B6:L6)</f>
+        <v>2011.1</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B5*$D$2^B4</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:L6" si="0">C5*$D$2^C4</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f>D5*$D$2^D4</f>
+        <v>2000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <f>G5*$D$2^G4</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="S6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <f>INT(B$12*$A13/$D$10)*10+MOD(B$12*$A13,$D$10)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:H19" si="1">INT(C$12*$A13/$D$10)*10+MOD(C$12*$A13,$D$10)</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" ref="B14:B19" si="2">INT(B$12*$A14/$D$10)*10+MOD(B$12*$A14,$D$10)</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1" t="str">
-        <f>MID($D$2,G1,1)</f>
-        <v>А</v>
-      </c>
-      <c r="I1">
-        <f t="shared" ref="I1:I10" si="0">IF($H1&lt;&gt;"", SEARCH($H1,A$13,1), " ")</f>
-        <v>1</v>
-      </c>
-      <c r="J1" t="str">
-        <f ca="1">OFFSET($A$1,$I1-1,1,1,1)</f>
-        <v>.-</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="E2" t="str">
-        <f ca="1">CONCATENATE(J1," ",J2," ",J3," ",J4," ",J5," ",J6," ",J7," ",J8," ",J9," ",J10)</f>
-        <v xml:space="preserve">.- .- .-- .-- -… .-    </v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H10" si="1">MID($D$2,G2,1)</f>
-        <v>А</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:J6" ca="1" si="2">OFFSET($A$1,$I2-1,1,1,1)</f>
-        <v>.-</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="1"/>
-        <v>В</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>.--</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="1"/>
-        <v>В</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>.--</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="1"/>
-        <v>Б</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>-…</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="1"/>
-        <v>А</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>.-</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <f>IF($H7&lt;&gt;"", SEARCH($H7,A$13,1), " ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>10</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>$S$2:$S$9</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
